--- a/section2/PivotTable_exercise.xlsx
+++ b/section2/PivotTable_exercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Code\SavvyCoders\Activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A54620-E9BC-424F-8934-6F2F6223D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FA319-88DA-4946-9AE9-E98E0CE213A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -28,14 +28,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="177">
   <si>
     <t>Step</t>
   </si>
@@ -642,9 +641,6 @@
   </si>
   <si>
     <t>Feb</t>
-  </si>
-  <si>
-    <t>Sum of Sum of Tax Inclusive Amount</t>
   </si>
 </sst>
 </file>
@@ -880,7 +876,7 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,6 +970,7 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -985,9 +982,51 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Style 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="133">
     <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1038,6 +1077,9 @@
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -1065,10 +1107,22 @@
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1117,6 +1171,165 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1367,6 +1580,12 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1392,43 +1611,18 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="5"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PivotTable_exercise.xlsx]Payments!PivotTable2</c:name>
+    <c:name>[PivotTable_exercise.xlsx]Payments!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2012</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1442,11 +1636,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1463,72 +1657,13 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent3"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent3"/>
-            </a:innerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:pattFill prst="narHorz">
-            <a:fgClr>
-              <a:schemeClr val="accent3"/>
-            </a:fgClr>
-            <a:bgClr>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:bgClr>
-          </a:pattFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:innerShdw blurRad="114300">
-              <a:schemeClr val="accent3"/>
-            </a:innerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1587,7 +1722,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Payments!$B$11</c:f>
+              <c:f>Payments!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1597,59 +1732,86 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Payments!$A$12:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payments!$A$4:$A$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$B$12:$B$14</c:f>
+              <c:f>Payments!$B$4:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30301.25</c:v>
+                  <c:v>30270.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34664</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C5DA-444B-AD46-CF7C708454D3}"/>
+              <c16:uniqueId val="{00000000-6E3D-4AA8-A592-E5A4ADFBEB26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1661,13 +1823,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
-        <c:axId val="428771232"/>
-        <c:axId val="428786112"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2020537248"/>
+        <c:axId val="2020540128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="428771232"/>
+        <c:axId val="2020537248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,11 +1841,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1710,7 +1872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428786112"/>
+        <c:crossAx val="2020540128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1718,13 +1880,27 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428786112"/>
+        <c:axId val="2020540128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1755,7 +1931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428771232"/>
+        <c:crossAx val="2020537248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1859,13 +2035,47 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1876,7 +2086,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1889,11 +2099,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1906,7 +2116,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1922,7 +2132,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1966,70 +2176,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2041,29 +2213,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2085,13 +2261,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2106,15 +2284,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2125,10 +2303,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2144,14 +2322,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2163,24 +2341,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2189,16 +2374,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2207,14 +2393,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2226,16 +2412,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2256,7 +2443,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2264,7 +2451,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2284,10 +2471,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2304,11 +2491,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2317,13 +2504,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2353,8 +2541,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2377,8 +2565,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2388,22 +2582,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C89427F-D3D9-A41E-6965-C2A4CCA6D807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA0ED75-787B-FAF4-46B9-84893EE5DBA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2796,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Bank Code" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="B1"/>
+        <s v="B2"/>
+        <s v="PC"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Account Code" numFmtId="0">
       <sharedItems count="23">
@@ -2821,33 +3019,6 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adam Klima" refreshedDate="45044.471643287034" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{6E316F16-0A6A-4473-BFE6-0ADDD3ECDEA3}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:B8" sheet="Payments"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="Row Labels" numFmtId="0">
-      <sharedItems count="5">
-        <s v="2012"/>
-        <s v="Qtr1"/>
-        <s v="Jan"/>
-        <s v="Feb"/>
-        <s v="Grand Total"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sum of Tax Inclusive Amount" numFmtId="166">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="30301.25" maxValue="64965.25"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="208">
   <r>
@@ -2857,7 +3028,7 @@
     <s v="Opening Balance"/>
     <n v="5100"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -2868,7 +3039,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -2879,7 +3050,7 @@
     <s v="Subscriptions"/>
     <n v="478"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
   </r>
@@ -2890,7 +3061,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
   </r>
@@ -2901,7 +3072,7 @@
     <s v="Service Fees"/>
     <n v="50"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="4"/>
   </r>
@@ -2912,7 +3083,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="4"/>
   </r>
@@ -2923,7 +3094,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="5"/>
   </r>
@@ -2934,7 +3105,7 @@
     <s v="Flowers"/>
     <n v="90"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="4"/>
   </r>
@@ -2945,7 +3116,7 @@
     <s v="Parking"/>
     <n v="200"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="6"/>
   </r>
@@ -2956,7 +3127,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-15000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="7"/>
   </r>
@@ -2967,7 +3138,7 @@
     <s v="Inter Account Transfer"/>
     <n v="15000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="7"/>
   </r>
@@ -2978,7 +3149,7 @@
     <s v="Salaries"/>
     <n v="33000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="8"/>
   </r>
@@ -2989,7 +3160,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="8"/>
   </r>
@@ -3000,7 +3171,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="8"/>
   </r>
@@ -3011,7 +3182,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="8"/>
   </r>
@@ -3022,7 +3193,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="1"/>
   </r>
@@ -3033,7 +3204,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="1"/>
   </r>
@@ -3044,7 +3215,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="9"/>
   </r>
@@ -3055,7 +3226,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="10"/>
   </r>
@@ -3066,7 +3237,7 @@
     <s v="Flowers"/>
     <n v="87"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="11"/>
   </r>
@@ -3077,7 +3248,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="12"/>
   </r>
@@ -3088,7 +3259,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="12"/>
   </r>
@@ -3099,7 +3270,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="13"/>
   </r>
@@ -3110,7 +3281,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="14"/>
   </r>
@@ -3121,7 +3292,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="14"/>
   </r>
@@ -3132,7 +3303,7 @@
     <s v="Sales Tax"/>
     <n v="1300"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="15"/>
   </r>
@@ -3143,7 +3314,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="16"/>
   </r>
@@ -3154,7 +3325,7 @@
     <s v="Furniture"/>
     <n v="3000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="14"/>
     <x v="17"/>
   </r>
@@ -3165,7 +3336,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="16"/>
   </r>
@@ -3176,7 +3347,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="16"/>
   </r>
@@ -3187,7 +3358,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="16"/>
   </r>
@@ -3198,7 +3369,7 @@
     <s v="Consumables"/>
     <n v="41"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="15"/>
     <x v="18"/>
   </r>
@@ -3209,7 +3380,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="19"/>
   </r>
@@ -3220,7 +3391,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="19"/>
   </r>
@@ -3231,7 +3402,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="20"/>
   </r>
@@ -3242,7 +3413,7 @@
     <s v="Course"/>
     <n v="220"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="16"/>
     <x v="20"/>
   </r>
@@ -3253,7 +3424,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="21"/>
   </r>
@@ -3264,7 +3435,7 @@
     <s v="Accommodation"/>
     <n v="563"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="22"/>
   </r>
@@ -3275,7 +3446,7 @@
     <s v="Stationery"/>
     <n v="982"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="17"/>
     <x v="23"/>
   </r>
@@ -3286,7 +3457,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="24"/>
   </r>
@@ -3297,7 +3468,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="24"/>
   </r>
@@ -3308,7 +3479,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="25"/>
   </r>
@@ -3319,7 +3490,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="26"/>
   </r>
@@ -3330,7 +3501,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="26"/>
   </r>
@@ -3341,7 +3512,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="17"/>
   </r>
@@ -3352,7 +3523,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="17"/>
   </r>
@@ -3363,7 +3534,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="17"/>
   </r>
@@ -3374,7 +3545,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="17"/>
   </r>
@@ -3385,7 +3556,7 @@
     <s v="Flowers"/>
     <n v="65"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="18"/>
   </r>
@@ -3396,7 +3567,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="20"/>
   </r>
@@ -3407,7 +3578,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="20"/>
   </r>
@@ -3418,7 +3589,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="27"/>
   </r>
@@ -3429,7 +3600,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="28"/>
   </r>
@@ -3440,7 +3611,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="29"/>
   </r>
@@ -3451,7 +3622,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="29"/>
   </r>
@@ -3462,7 +3633,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="30"/>
   </r>
@@ -3473,7 +3644,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="31"/>
   </r>
@@ -3484,7 +3655,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="31"/>
   </r>
@@ -3495,7 +3666,7 @@
     <s v="Flowers"/>
     <n v="110"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="32"/>
   </r>
@@ -3506,7 +3677,7 @@
     <s v="Sales Tax"/>
     <n v="8700"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="33"/>
   </r>
@@ -3517,7 +3688,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="34"/>
   </r>
@@ -3528,7 +3699,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="34"/>
   </r>
@@ -3539,7 +3710,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="34"/>
   </r>
@@ -3550,7 +3721,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="34"/>
   </r>
@@ -3561,7 +3732,7 @@
     <s v="Travel"/>
     <n v="1782"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="34"/>
   </r>
@@ -3572,7 +3743,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="35"/>
   </r>
@@ -3583,7 +3754,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="35"/>
   </r>
@@ -3594,7 +3765,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="36"/>
   </r>
@@ -3605,7 +3776,7 @@
     <s v="Stationery"/>
     <n v="761"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="17"/>
     <x v="37"/>
   </r>
@@ -3616,7 +3787,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="38"/>
   </r>
@@ -3627,7 +3798,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="39"/>
   </r>
@@ -3638,7 +3809,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="39"/>
   </r>
@@ -3649,7 +3820,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="40"/>
   </r>
@@ -3660,7 +3831,7 @@
     <s v="Flowers"/>
     <n v="29"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="41"/>
   </r>
@@ -3671,7 +3842,7 @@
     <s v="Consumables"/>
     <n v="937"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="15"/>
     <x v="42"/>
   </r>
@@ -3682,7 +3853,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="43"/>
   </r>
@@ -3693,7 +3864,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="43"/>
   </r>
@@ -3704,7 +3875,7 @@
     <s v="Annual Membership"/>
     <n v="2000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="44"/>
   </r>
@@ -3715,7 +3886,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="45"/>
   </r>
@@ -3726,7 +3897,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="45"/>
   </r>
@@ -3737,7 +3908,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="45"/>
   </r>
@@ -3748,7 +3919,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="45"/>
   </r>
@@ -3759,7 +3930,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="50"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="36"/>
   </r>
@@ -3770,7 +3941,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-50"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="36"/>
   </r>
@@ -3781,7 +3952,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="46"/>
   </r>
@@ -3792,7 +3963,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="47"/>
   </r>
@@ -3803,7 +3974,7 @@
     <s v="Flowers"/>
     <n v="78"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="48"/>
   </r>
@@ -3814,7 +3985,7 @@
     <s v="Commission"/>
     <n v="747"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="18"/>
     <x v="49"/>
   </r>
@@ -3825,7 +3996,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="50"/>
   </r>
@@ -3836,7 +4007,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="50"/>
   </r>
@@ -3847,7 +4018,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="51"/>
   </r>
@@ -3858,7 +4029,7 @@
     <s v="Travel"/>
     <n v="1278"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="50"/>
   </r>
@@ -3869,7 +4040,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="52"/>
   </r>
@@ -3880,7 +4051,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="52"/>
   </r>
@@ -3891,7 +4062,7 @@
     <s v="Share investment"/>
     <n v="3750"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="19"/>
     <x v="53"/>
   </r>
@@ -3902,7 +4073,7 @@
     <s v="Sales Tax"/>
     <n v="6600"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="54"/>
   </r>
@@ -3913,7 +4084,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="55"/>
   </r>
@@ -3924,7 +4095,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="55"/>
   </r>
@@ -3935,7 +4106,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="55"/>
   </r>
@@ -3946,7 +4117,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="55"/>
   </r>
@@ -3957,7 +4128,7 @@
     <s v="Stationery"/>
     <n v="234"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="17"/>
     <x v="56"/>
   </r>
@@ -3968,7 +4139,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="50"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="46"/>
   </r>
@@ -3979,7 +4150,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-50"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="46"/>
   </r>
@@ -3990,7 +4161,7 @@
     <s v="Provisional Tax"/>
     <n v="2600"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="20"/>
     <x v="46"/>
   </r>
@@ -4001,7 +4172,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="57"/>
   </r>
@@ -4012,7 +4183,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="58"/>
   </r>
@@ -4023,7 +4194,7 @@
     <s v="Course"/>
     <n v="277.48"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="16"/>
     <x v="59"/>
   </r>
@@ -4034,7 +4205,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="60"/>
   </r>
@@ -4045,7 +4216,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="60"/>
   </r>
@@ -4056,7 +4227,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="61"/>
   </r>
@@ -4067,7 +4238,7 @@
     <s v="Rates"/>
     <n v="5620"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="21"/>
     <x v="62"/>
   </r>
@@ -4078,7 +4249,7 @@
     <s v="Legal advice"/>
     <n v="12500"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="22"/>
     <x v="62"/>
   </r>
@@ -4089,7 +4260,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="63"/>
   </r>
@@ -4100,7 +4271,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="63"/>
   </r>
@@ -4111,7 +4282,7 @@
     <s v="Flowers"/>
     <n v="90"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="64"/>
   </r>
@@ -4122,7 +4293,7 @@
     <s v="Commission"/>
     <n v="4242"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="18"/>
     <x v="65"/>
   </r>
@@ -4133,7 +4304,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="56"/>
   </r>
@@ -4144,7 +4315,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="56"/>
   </r>
@@ -4155,7 +4326,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="56"/>
   </r>
@@ -4166,7 +4337,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="56"/>
   </r>
@@ -4177,7 +4348,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="66"/>
   </r>
@@ -4188,7 +4359,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="66"/>
   </r>
@@ -4199,7 +4370,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="67"/>
   </r>
@@ -4210,7 +4381,7 @@
     <s v="Consumables"/>
     <n v="62"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="15"/>
     <x v="68"/>
   </r>
@@ -4221,7 +4392,7 @@
     <s v="Travel"/>
     <n v="1887"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="69"/>
   </r>
@@ -4232,7 +4403,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="70"/>
   </r>
@@ -4243,7 +4414,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="71"/>
   </r>
@@ -4254,7 +4425,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="71"/>
   </r>
@@ -4265,7 +4436,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="72"/>
   </r>
@@ -4276,7 +4447,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="73"/>
   </r>
@@ -4287,7 +4458,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="73"/>
   </r>
@@ -4298,7 +4469,7 @@
     <s v="Stationery"/>
     <n v="289"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="17"/>
     <x v="74"/>
   </r>
@@ -4309,7 +4480,7 @@
     <s v="Sales Tax"/>
     <n v="3300"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="75"/>
   </r>
@@ -4320,7 +4491,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="76"/>
   </r>
@@ -4331,7 +4502,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="76"/>
   </r>
@@ -4342,7 +4513,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="76"/>
   </r>
@@ -4353,7 +4524,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="76"/>
   </r>
@@ -4364,7 +4535,7 @@
     <s v="Flowers"/>
     <n v="218"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="77"/>
   </r>
@@ -4375,7 +4546,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="200"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="67"/>
   </r>
@@ -4386,7 +4557,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-200"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="67"/>
   </r>
@@ -4397,7 +4568,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="78"/>
   </r>
@@ -4408,7 +4579,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="79"/>
   </r>
@@ -4419,7 +4590,7 @@
     <s v="Commission"/>
     <n v="982"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="18"/>
     <x v="80"/>
   </r>
@@ -4430,7 +4601,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="81"/>
   </r>
@@ -4441,7 +4612,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="81"/>
   </r>
@@ -4452,7 +4623,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="82"/>
   </r>
@@ -4463,7 +4634,7 @@
     <s v="Flowers"/>
     <n v="102"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="83"/>
   </r>
@@ -4474,7 +4645,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="84"/>
   </r>
@@ -4485,7 +4656,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="84"/>
   </r>
@@ -4496,7 +4667,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="85"/>
   </r>
@@ -4507,7 +4678,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="85"/>
   </r>
@@ -4518,7 +4689,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="85"/>
   </r>
@@ -4529,7 +4700,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="85"/>
   </r>
@@ -4540,7 +4711,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="170"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="86"/>
   </r>
@@ -4551,7 +4722,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-170"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="86"/>
   </r>
@@ -4562,7 +4733,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="87"/>
   </r>
@@ -4573,7 +4744,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="80"/>
   </r>
@@ -4584,7 +4755,7 @@
     <s v="Flowers"/>
     <n v="96"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="88"/>
   </r>
@@ -4595,7 +4766,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="89"/>
   </r>
@@ -4606,7 +4777,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="89"/>
   </r>
@@ -4617,7 +4788,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="90"/>
   </r>
@@ -4628,7 +4799,7 @@
     <s v="Subscriptions"/>
     <n v="120"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="91"/>
   </r>
@@ -4639,7 +4810,7 @@
     <s v="Stationery"/>
     <n v="310"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="17"/>
     <x v="91"/>
   </r>
@@ -4650,7 +4821,7 @@
     <s v="Commission"/>
     <n v="962"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="18"/>
     <x v="91"/>
   </r>
@@ -4661,7 +4832,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="92"/>
   </r>
@@ -4672,7 +4843,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="92"/>
   </r>
@@ -4683,7 +4854,7 @@
     <s v="Consumables"/>
     <n v="61"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="15"/>
     <x v="93"/>
   </r>
@@ -4694,7 +4865,7 @@
     <s v="Sales Tax"/>
     <n v="8400"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="94"/>
   </r>
@@ -4705,7 +4876,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="95"/>
   </r>
@@ -4716,7 +4887,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="95"/>
   </r>
@@ -4727,7 +4898,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="95"/>
   </r>
@@ -4738,7 +4909,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="95"/>
   </r>
@@ -4749,7 +4920,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="87"/>
   </r>
@@ -4760,7 +4931,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="87"/>
   </r>
@@ -4771,7 +4942,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="96"/>
   </r>
@@ -4782,7 +4953,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="97"/>
   </r>
@@ -4793,7 +4964,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="98"/>
   </r>
@@ -4804,7 +4975,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="98"/>
   </r>
@@ -4815,7 +4986,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="99"/>
   </r>
@@ -4826,7 +4997,7 @@
     <s v="Flowers"/>
     <n v="105"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="91"/>
   </r>
@@ -4837,7 +5008,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="100"/>
   </r>
@@ -4848,7 +5019,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="100"/>
   </r>
@@ -4859,7 +5030,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="101"/>
   </r>
@@ -4870,7 +5041,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="101"/>
   </r>
@@ -4881,7 +5052,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="101"/>
   </r>
@@ -4892,7 +5063,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="101"/>
   </r>
@@ -4903,7 +5074,7 @@
     <s v="Training"/>
     <n v="389.25"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="16"/>
     <x v="96"/>
   </r>
@@ -4914,7 +5085,7 @@
     <s v="Commission"/>
     <n v="514"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="18"/>
     <x v="102"/>
   </r>
@@ -4925,7 +5096,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="170"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="96"/>
   </r>
@@ -4936,7 +5107,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-170"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="96"/>
   </r>
@@ -4947,7 +5118,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="103"/>
   </r>
@@ -4958,7 +5129,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="104"/>
   </r>
@@ -4969,7 +5140,7 @@
     <s v="Stationery"/>
     <n v="289"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="17"/>
     <x v="103"/>
   </r>
@@ -4980,7 +5151,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="105"/>
   </r>
@@ -4991,7 +5162,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="105"/>
   </r>
@@ -5002,7 +5173,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="103"/>
   </r>
@@ -5013,7 +5184,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="106"/>
   </r>
@@ -5024,7 +5195,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="106"/>
   </r>
@@ -5035,7 +5206,7 @@
     <s v="Sales Tax"/>
     <n v="2200"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="107"/>
   </r>
@@ -5046,7 +5217,7 @@
     <s v="Flowers"/>
     <n v="75"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="107"/>
   </r>
@@ -5057,7 +5228,7 @@
     <s v="Office equipment"/>
     <n v="10000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="14"/>
     <x v="103"/>
   </r>
@@ -5068,7 +5239,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <x v="9"/>
     <x v="108"/>
   </r>
@@ -5079,7 +5250,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="108"/>
   </r>
@@ -5090,7 +5261,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="108"/>
   </r>
@@ -5101,7 +5272,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="108"/>
   </r>
@@ -5112,7 +5283,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="70"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="109"/>
   </r>
@@ -5123,7 +5294,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-70"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <x v="8"/>
     <x v="109"/>
   </r>
@@ -5134,108 +5305,16 @@
     <s v="Provisional Tax"/>
     <n v="3700"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <x v="20"/>
     <x v="109"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="30301.25"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="34664"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="64965.25"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDA1FD9B-0479-4015-8906-9D0466F013FF}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A11:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sum of Tax Inclusive Amount" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DB704A0-17E6-43B2-9482-467BB095E57E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DB704A0-17E6-43B2-9482-467BB095E57E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -5243,7 +5322,14 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
@@ -5266,7 +5352,7 @@
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField showAll="0" defaultSubtotal="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -5287,15 +5373,30 @@
   </pivotFields>
   <rowFields count="3">
     <field x="12"/>
-    <field x="11"/>
     <field x="8"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="10">
     <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i r="2">
       <x v="1"/>
@@ -5313,35 +5414,8 @@
   <dataFields count="1">
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="16">
-    <format dxfId="43">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="11" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="8" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="41">
+  <formats count="4">
+    <format dxfId="112">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -5350,121 +5424,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="11" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="39">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="8" count="1">
-            <x v="3"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="11" count="1">
-            <x v="2"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="8" count="3">
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="11" count="1">
-            <x v="3"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="8" count="3">
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="11" count="1">
-            <x v="4"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="8" count="3">
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
+    <format dxfId="113">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -5473,41 +5433,24 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="11" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="2"/>
+    <format dxfId="114">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="115">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="8" count="2">
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5520,8 +5463,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3BC0711-470F-450F-A847-034927F8F84E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3BC0711-470F-450F-A847-034927F8F84E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField numFmtId="14" showAll="0">
@@ -5725,14 +5668,14 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="45">
+    <format dxfId="117">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5748,8 +5691,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{399D058A-4013-49A0-815E-10CE1742538B}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{399D058A-4013-49A0-815E-10CE1742538B}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField numFmtId="14" showAll="0"/>
@@ -6007,21 +5950,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A66BD9-E71C-472D-9146-E8ED3A615199}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A66BD9-E71C-472D-9146-E8ED3A615199}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127">
   <autoFilter ref="A2:I210" xr:uid="{E4A66BD9-E71C-472D-9146-E8ED3A615199}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I210">
     <sortCondition ref="B2:B210"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BB152757-64B9-49DC-89EA-51A4134B0B8B}" name="Document Date" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{AD987F59-87AB-4D4B-BA75-418731AD4610}" name="Supplier" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{625C620C-D687-4232-97E4-3D379589FBA1}" name="Reference" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{4AF53E85-DD12-4472-A963-3723AF751108}" name="Description" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{D8398EEE-25DD-4D30-9F05-B53FD6C3BBC7}" name="Tax Inclusive Amount" dataDxfId="50" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{A90E74C1-DA76-4848-B7B9-0B7967D2192D}" name="Tax Code" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{A2806A42-6552-45B4-8F2A-A186B3E4181A}" name="Bank Code" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{373A1BCE-7B81-4266-A652-E7796B0D1603}" name="Account Code" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{22386535-409D-4CD1-9FBB-9A2E1408FF3E}" name="Payment Date" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{BB152757-64B9-49DC-89EA-51A4134B0B8B}" name="Document Date" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{AD987F59-87AB-4D4B-BA75-418731AD4610}" name="Supplier" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{625C620C-D687-4232-97E4-3D379589FBA1}" name="Reference" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{4AF53E85-DD12-4472-A963-3723AF751108}" name="Description" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{D8398EEE-25DD-4D30-9F05-B53FD6C3BBC7}" name="Tax Inclusive Amount" dataDxfId="122" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{A90E74C1-DA76-4848-B7B9-0B7967D2192D}" name="Tax Code" dataDxfId="121"/>
+    <tableColumn id="7" xr3:uid="{A2806A42-6552-45B4-8F2A-A186B3E4181A}" name="Bank Code" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{373A1BCE-7B81-4266-A652-E7796B0D1603}" name="Account Code" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{22386535-409D-4CD1-9FBB-9A2E1408FF3E}" name="Payment Date" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6472,15 +6415,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A4194B-005E-4943-A7DC-EC4DC0A6269E}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6501,70 +6445,80 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="36"/>
+        <v>175</v>
+      </c>
+      <c r="B5" s="37">
+        <v>30301.25</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="36">
-        <v>30301.25</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="37">
+        <v>30270.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="37">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B9" s="37">
         <v>34664</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="36">
-        <v>64965.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>177</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="37">
+        <v>34624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="36">
-        <v>30301.25</v>
+      <c r="A12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B13" s="36">
-        <v>34664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="36">
         <v>64965.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
